--- a/OYM/_DocumentosComunes/7. Evaluacion Proyecto Final.xlsx
+++ b/OYM/_DocumentosComunes/7. Evaluacion Proyecto Final.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256779C-9B51-4DA3-8903-1309B8AB98F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Formato de Evaluacion del Proyecto</t>
   </si>
@@ -65,11 +66,17 @@
   <si>
     <t>La presentacion en SlideShare cumple con lo solicitado?</t>
   </si>
+  <si>
+    <t>Llena las espectativas?</t>
+  </si>
+  <si>
+    <t>El video muestra su plan de Marketing?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -255,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -463,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -471,36 +512,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>5</v>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>SUM(B3:B10)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
